--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -423,10 +423,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
@@ -435,19 +435,19 @@
         <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" t="n">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -470,31 +470,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -736,31 +736,31 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -982,51 +982,51 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
         <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -423,40 +423,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1" t="n">
         <v>3</v>
       </c>
-      <c r="G1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1</v>
-      </c>
       <c r="J1" t="n">
         <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -473,28 +473,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -540,25 +540,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -613,40 +613,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>6</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -777,25 +777,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -996,37 +996,37 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
+        <v>16</v>
+      </c>
+      <c r="L16" t="n">
         <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -423,22 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -447,13 +447,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
         <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
@@ -473,25 +473,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -613,22 +613,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -982,51 +982,51 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -423,10 +423,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
@@ -435,19 +435,19 @@
         <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
       </c>
       <c r="H1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" t="n">
         <v>0</v>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -473,13 +473,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -982,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -426,34 +426,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" t="n">
         <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
         <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L1" t="n">
         <v>0</v>
@@ -473,25 +473,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -616,34 +616,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -996,37 +996,37 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_APENAS_VALORES.xlsx
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
